--- a/data/expt_2/raw_transcripts/game69.xlsx
+++ b/data/expt_2/raw_transcripts/game69.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="MVI_0089.MP4.csv" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="MVI_0089.MP4.csv" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="201">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -439,129 +439,135 @@
     <t xml:space="preserve">No you say what you see in the black box [id125]</t>
   </si>
   <si>
+    <t xml:space="preserve">a person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">holding a ball.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">holding a ball</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alright, that time, [id125] didn't finish saying what she was saying.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So wait until [id125] done saying.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And then...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And then also don't touch anything until [id126] tells you, okay, [id125]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Okay, so you're still guessing now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So, do you want to say what you see in the black box?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a ghost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I guess it's this one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[id125]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You need to stop pressing it</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Before [id126] can tell you what's in the black box, okay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, okay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You need to wait until [id126] tells you what's in the black box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ghost came again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay so now you can tell [id126] what you see in the black box</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [id126], I see...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh yeah, [id126]'s guessing...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a person holding a bow in his hand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A person holding a bow in his hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now wait for [id126] to tell you what you see is in the black box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a ghost.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thats...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not good.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [id126], you have to tell me you see a person in the box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Okay, let's just try going to the...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It's okay, we can just try go into the next one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So what do you see the black box [id125]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Okay, let me tap.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now what do you see the black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box [id126]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a person holding a ball.</t>
+  </si>
+  <si>
     <t xml:space="preserve">A person holding a ball</t>
   </si>
   <si>
-    <t xml:space="preserve">holding a ball.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alright, that time, [id125] didn't finish saying what she was saying.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So wait until [id125] done saying.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And then...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And then also don't touch anything until [id126] tells you, okay, [id125]?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Okay, so you're still guessing now.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> So, do you want to say what you see in the black box?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I see...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a ghost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yeah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Got it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I guess it's this one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[id125]...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You need to stop pressing it</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Before [id126] can tell you what's in the black box, okay</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Oh, okay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You need to wait until [id126] tells you what's in the black box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ghost came again</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okay so now you can tell [id126] what you see in the black box</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [id126], I see...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Oh yeah, [id126]'s guessing...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I see a person holding a bow in his hand.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A person holding a bow in his hand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now wait for [id126] to tell you what you see is in the black box.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I see a ghost.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thats...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not good.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [id126], you have to tell me you see a person in the box.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Okay, let's just try going to the...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It's okay, we can just try go into the next one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So what do you see the black box [id125]?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Okay, let me tap.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now what do you see the black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">box [id126]?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I see a person holding a ball.</t>
-  </si>
-  <si>
     <t xml:space="preserve">It's not gonna keep pressing.</t>
   </si>
   <si>
@@ -571,9 +577,6 @@
     <t xml:space="preserve"> No, I see a person.</t>
   </si>
   <si>
-    <t xml:space="preserve">a person</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Oh, [id125], you're saying what you see in the black box, okay?</t>
   </si>
   <si>
@@ -598,7 +601,7 @@
     <t xml:space="preserve">Someone holding a cup and in the box it's a person.</t>
   </si>
   <si>
-    <t xml:space="preserve">Someone holding.a cup</t>
+    <t xml:space="preserve">Someone holding.a cup, a person</t>
   </si>
   <si>
     <t xml:space="preserve">That's a happy face.</t>
@@ -702,12 +705,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -723,3293 +730,3402 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H213"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H208" activeCellId="0" sqref="H208"/>
+      <selection pane="bottomLeft" activeCell="H209" activeCellId="0" sqref="H209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>800</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>2760</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>2760</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>6240</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>6240</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>7240</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>7240</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>8240</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>8240</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>11240</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>11240</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>12240</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>12240</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>16240</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>16240</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>21800</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>21800</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>27240</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>27240</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>32240</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>32240</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="2" t="n">
         <v>34240</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>34240</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>38240</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>38240</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="2" t="n">
         <v>41240</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>41240</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="2" t="n">
         <v>43240</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>43240</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="2" t="n">
         <v>44240</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>44240</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="2" t="n">
         <v>48240</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>48240</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="2" t="n">
         <v>52240</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>52240</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="2" t="n">
         <v>54240</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>54240</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="2" t="n">
         <v>56240</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>56240</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="2" t="n">
         <v>58240</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>58240</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="2" t="n">
         <v>60240</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>60240</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="2" t="n">
         <v>62240</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="2" t="n">
         <v>62240</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="2" t="n">
         <v>64240</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>64240</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="2" t="n">
         <v>66240</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>66240</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="2" t="n">
         <v>70240</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>70240</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="2" t="n">
         <v>74240</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>74240</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="2" t="n">
         <v>76240</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>76240</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="2" t="n">
         <v>79240</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>79240</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="2" t="n">
         <v>82240</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>82240</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="2" t="n">
         <v>83240</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="2" t="n">
         <v>83240</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="2" t="n">
         <v>85240</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="2" t="n">
         <v>85240</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="2" t="n">
         <v>86240</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="2" t="n">
         <v>86240</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="2" t="n">
         <v>87240</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="2" t="n">
         <v>87240</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="2" t="n">
         <v>88240</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="2" t="n">
         <v>88240</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="2" t="n">
         <v>89240</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="2" t="n">
         <v>89240</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="2" t="n">
         <v>90240</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="2" t="n">
         <v>107240</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="2" t="n">
         <v>108240</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="2" t="n">
         <v>110240</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="2" t="n">
         <v>111240</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="2" t="n">
         <v>111240</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="2" t="n">
         <v>115240</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="2" t="n">
         <v>115240</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="2" t="n">
         <v>118240</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="2" t="n">
         <v>118240</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="2" t="n">
         <v>119240</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="2" t="n">
         <v>119240</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="2" t="n">
         <v>120240</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="2" t="n">
         <v>120240</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="2" t="n">
         <v>121240</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="2" t="n">
         <v>121240</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="2" t="n">
         <v>122240</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="2" t="n">
         <v>122240</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="2" t="n">
         <v>127240</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="2" t="n">
         <v>127240</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="2" t="n">
         <v>131240</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="2" t="n">
         <v>131240</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="2" t="n">
         <v>137240</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="2" t="n">
         <v>137240</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="2" t="n">
         <v>146240</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="2" t="n">
         <v>146240</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="2" t="n">
         <v>147240</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="2" t="n">
         <v>147240</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="2" t="n">
         <v>153240</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="2" t="n">
         <v>153240</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="2" t="n">
         <v>159240</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="2" t="n">
         <v>159240</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="2" t="n">
         <v>165240</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="2" t="n">
         <v>165240</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="2" t="n">
         <v>171240</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="2" t="n">
         <v>171240</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B55" s="2" t="n">
         <v>175240</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="2" t="n">
         <v>175240</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="2" t="n">
         <v>178240</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="2" t="n">
         <v>178240</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="2" t="n">
         <v>180240</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="2" t="n">
         <v>180240</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="2" t="n">
         <v>182240</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="2" t="n">
         <v>182240</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B59" s="2" t="n">
         <v>184240</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="2" t="n">
         <v>184240</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B60" s="2" t="n">
         <v>187240</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="2" t="n">
         <v>187240</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B61" s="2" t="n">
         <v>189240</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="2" t="n">
         <v>189240</v>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B62" s="2" t="n">
         <v>191120</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="2" t="n">
         <v>191120</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B63" s="2" t="n">
         <v>192000</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="2" t="n">
         <v>192000</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B64" s="2" t="n">
         <v>195000</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="2" t="n">
         <v>195000</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B65" s="2" t="n">
         <v>196000</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="2" t="n">
         <v>196000</v>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B66" s="2" t="n">
         <v>199880</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="2" t="n">
         <v>199880</v>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="B67" s="2" t="n">
         <v>201480</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="2" t="n">
         <v>201480</v>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B68" s="2" t="n">
         <v>204220</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="2" t="n">
         <v>204220</v>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="B69" s="2" t="n">
         <v>207480</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="2" t="n">
         <v>204220</v>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="B70" s="2" t="n">
         <v>207480</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="2" t="n">
         <v>209480</v>
       </c>
-      <c r="B71" s="1" t="n">
+      <c r="B71" s="2" t="n">
         <v>212800</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="2" t="n">
         <v>212800</v>
       </c>
-      <c r="B72" s="1" t="n">
+      <c r="B72" s="2" t="n">
         <v>215300</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="2" t="n">
         <v>215300</v>
       </c>
-      <c r="B73" s="1" t="n">
+      <c r="B73" s="2" t="n">
         <v>218560</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="2" t="n">
         <v>218560</v>
       </c>
-      <c r="B74" s="1" t="n">
+      <c r="B74" s="2" t="n">
         <v>219560</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="2" t="n">
         <v>219560</v>
       </c>
-      <c r="B75" s="1" t="n">
+      <c r="B75" s="2" t="n">
         <v>220560</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+      <c r="A76" s="2" t="n">
         <v>220560</v>
       </c>
-      <c r="B76" s="1" t="n">
+      <c r="B76" s="2" t="n">
         <v>223800</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+      <c r="A77" s="2" t="n">
         <v>223800</v>
       </c>
-      <c r="B77" s="1" t="n">
+      <c r="B77" s="2" t="n">
         <v>224800</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="2" t="n">
         <v>224800</v>
       </c>
-      <c r="B78" s="1" t="n">
+      <c r="B78" s="2" t="n">
         <v>225800</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="2" t="n">
         <v>225800</v>
       </c>
-      <c r="B79" s="1" t="n">
+      <c r="B79" s="2" t="n">
         <v>226800</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="2" t="n">
         <v>226800</v>
       </c>
-      <c r="B80" s="1" t="n">
+      <c r="B80" s="2" t="n">
         <v>227800</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="2" t="n">
         <v>227800</v>
       </c>
-      <c r="B81" s="1" t="n">
+      <c r="B81" s="2" t="n">
         <v>231800</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="2" t="n">
         <v>231800</v>
       </c>
-      <c r="B82" s="1" t="n">
+      <c r="B82" s="2" t="n">
         <v>234800</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="1" t="n">
+      <c r="D82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+      <c r="A83" s="2" t="n">
         <v>234800</v>
       </c>
-      <c r="B83" s="1" t="n">
+      <c r="B83" s="2" t="n">
         <v>235800</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="2" t="n">
         <v>235800</v>
       </c>
-      <c r="B84" s="1" t="n">
+      <c r="B84" s="2" t="n">
         <v>240060</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="2" t="n">
         <v>240060</v>
       </c>
-      <c r="B85" s="1" t="n">
+      <c r="B85" s="2" t="n">
         <v>243060</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+      <c r="A86" s="2" t="n">
         <v>243060</v>
       </c>
-      <c r="B86" s="1" t="n">
+      <c r="B86" s="2" t="n">
         <v>247060</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="2" t="n">
         <v>247060</v>
       </c>
-      <c r="B87" s="1" t="n">
+      <c r="B87" s="2" t="n">
         <v>249060</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="H87" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="2" t="n">
         <v>249060</v>
       </c>
-      <c r="B88" s="1" t="n">
+      <c r="B88" s="2" t="n">
         <v>251060</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F88" s="1" t="s">
+      <c r="D88" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+      <c r="A89" s="2" t="n">
         <v>251060</v>
       </c>
-      <c r="B89" s="1" t="n">
+      <c r="B89" s="2" t="n">
         <v>253060</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+      <c r="A90" s="2" t="n">
         <v>253060</v>
       </c>
-      <c r="B90" s="1" t="n">
+      <c r="B90" s="2" t="n">
         <v>257060</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="2" t="n">
         <v>257060</v>
       </c>
-      <c r="B91" s="1" t="n">
+      <c r="B91" s="2" t="n">
         <v>258060</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="2" t="n">
         <v>258060</v>
       </c>
-      <c r="B92" s="1" t="n">
+      <c r="B92" s="2" t="n">
         <v>259060</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+      <c r="A93" s="2" t="n">
         <v>259060</v>
       </c>
-      <c r="B93" s="1" t="n">
+      <c r="B93" s="2" t="n">
         <v>261060</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="1" t="n">
+      <c r="D93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+      <c r="A94" s="2" t="n">
         <v>261060</v>
       </c>
-      <c r="B94" s="1" t="n">
+      <c r="B94" s="2" t="n">
         <v>262060</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94" s="1" t="s">
+      <c r="D94" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="2" t="n">
         <v>262060</v>
       </c>
-      <c r="B95" s="1" t="n">
+      <c r="B95" s="2" t="n">
         <v>263060</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="2" t="n">
         <v>263060</v>
       </c>
-      <c r="B96" s="1" t="n">
+      <c r="B96" s="2" t="n">
         <v>266060</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="2" t="n">
         <v>266060</v>
       </c>
-      <c r="B97" s="1" t="n">
+      <c r="B97" s="2" t="n">
         <v>269060</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F97" s="1" t="s">
+      <c r="D97" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="H97" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="2" t="n">
         <v>269060</v>
       </c>
-      <c r="B98" s="1" t="n">
+      <c r="B98" s="2" t="n">
         <v>271060</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+      <c r="A99" s="2" t="n">
         <v>271060</v>
       </c>
-      <c r="B99" s="1" t="n">
+      <c r="B99" s="2" t="n">
         <v>273060</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+      <c r="A100" s="2" t="n">
         <v>273060</v>
       </c>
-      <c r="B100" s="1" t="n">
+      <c r="B100" s="2" t="n">
         <v>276060</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F100" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+      <c r="A101" s="2" t="n">
         <v>276060</v>
       </c>
-      <c r="B101" s="1" t="n">
+      <c r="B101" s="2" t="n">
         <v>278060</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
+      <c r="A102" s="2" t="n">
         <v>278060</v>
       </c>
-      <c r="B102" s="1" t="n">
+      <c r="B102" s="2" t="n">
         <v>279060</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
+      <c r="A103" s="2" t="n">
         <v>279060</v>
       </c>
-      <c r="B103" s="1" t="n">
+      <c r="B103" s="2" t="n">
         <v>282060</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E103" s="1" t="n">
+      <c r="D103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
+      <c r="A104" s="2" t="n">
         <v>282060</v>
       </c>
-      <c r="B104" s="1" t="n">
+      <c r="B104" s="2" t="n">
         <v>286060</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F104" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="H104" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
+      <c r="A105" s="2" t="n">
         <v>286060</v>
       </c>
-      <c r="B105" s="1" t="n">
+      <c r="B105" s="2" t="n">
         <v>288060</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
+      <c r="A106" s="2" t="n">
         <v>288060</v>
       </c>
-      <c r="B106" s="1" t="n">
+      <c r="B106" s="2" t="n">
         <v>289060</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
+      <c r="A107" s="2" t="n">
         <v>290060</v>
       </c>
-      <c r="B107" s="1" t="n">
+      <c r="B107" s="2" t="n">
         <v>292060</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" s="1" t="n">
+      <c r="D107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
+      <c r="A108" s="2" t="n">
         <v>292060</v>
       </c>
-      <c r="B108" s="1" t="n">
+      <c r="B108" s="2" t="n">
         <v>298060</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F108" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
+      <c r="A109" s="2" t="n">
         <v>292060</v>
       </c>
-      <c r="B109" s="1" t="n">
+      <c r="B109" s="2" t="n">
         <v>298060</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
+      <c r="A110" s="2" t="n">
         <v>298060</v>
       </c>
-      <c r="B110" s="1" t="n">
+      <c r="B110" s="2" t="n">
         <v>300060</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F110" s="1" t="s">
+      <c r="D110" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H110" s="1" t="s">
+      <c r="H110" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
+      <c r="A111" s="2" t="n">
         <v>300060</v>
       </c>
-      <c r="B111" s="1" t="n">
+      <c r="B111" s="2" t="n">
         <v>302060</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
+      <c r="A112" s="2" t="n">
         <v>302060</v>
       </c>
-      <c r="B112" s="1" t="n">
+      <c r="B112" s="2" t="n">
         <v>305060</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" s="1" t="n">
+      <c r="D112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
+      <c r="A113" s="2" t="n">
         <v>305060</v>
       </c>
-      <c r="B113" s="1" t="n">
+      <c r="B113" s="2" t="n">
         <v>311060</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="F113" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
+      <c r="A114" s="2" t="n">
         <v>311060</v>
       </c>
-      <c r="B114" s="1" t="n">
+      <c r="B114" s="2" t="n">
         <v>314060</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
+      <c r="A115" s="2" t="n">
         <v>314060</v>
       </c>
-      <c r="B115" s="1" t="n">
+      <c r="B115" s="2" t="n">
         <v>317060</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F115" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="H115" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
+      <c r="A116" s="2" t="n">
         <v>317060</v>
       </c>
-      <c r="B116" s="1" t="n">
+      <c r="B116" s="2" t="n">
         <v>320060</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" s="1" t="n">
+      <c r="D116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
+      <c r="A117" s="2" t="n">
         <v>320060</v>
       </c>
-      <c r="B117" s="1" t="n">
+      <c r="B117" s="2" t="n">
         <v>333060</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F117" s="1" t="s">
+      <c r="D117" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
+      <c r="A118" s="2" t="n">
         <v>333060</v>
       </c>
-      <c r="B118" s="1" t="n">
+      <c r="B118" s="2" t="n">
         <v>336060</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
+      <c r="A119" s="2" t="n">
         <v>336060</v>
       </c>
-      <c r="B119" s="1" t="n">
+      <c r="B119" s="2" t="n">
         <v>338060</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
+      <c r="A120" s="2" t="n">
         <v>338060</v>
       </c>
-      <c r="B120" s="1" t="n">
+      <c r="B120" s="2" t="n">
         <v>340060</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F120" s="1" t="s">
+      <c r="D120" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H120" s="1" t="s">
+      <c r="H120" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
+      <c r="A121" s="2" t="n">
         <v>340060</v>
       </c>
-      <c r="B121" s="1" t="n">
+      <c r="B121" s="2" t="n">
         <v>342060</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F121" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
+      <c r="A122" s="2" t="n">
         <v>342060</v>
       </c>
-      <c r="B122" s="1" t="n">
+      <c r="B122" s="2" t="n">
         <v>344060</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F122" s="1" t="s">
+      <c r="D122" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
+      <c r="A123" s="2" t="n">
         <v>344060</v>
       </c>
-      <c r="B123" s="1" t="n">
+      <c r="B123" s="2" t="n">
         <v>346060</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F123" s="1" t="s">
+      <c r="D123" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
+      <c r="A124" s="2" t="n">
         <v>346060</v>
       </c>
-      <c r="B124" s="1" t="n">
+      <c r="B124" s="2" t="n">
         <v>348060</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E124" s="1" t="n">
+      <c r="D124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="2" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
+      <c r="A125" s="2" t="n">
         <v>348060</v>
       </c>
-      <c r="B125" s="1" t="n">
+      <c r="B125" s="2" t="n">
         <v>358060</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F125" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="H125" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
+      <c r="A126" s="2" t="n">
         <v>358060</v>
       </c>
-      <c r="B126" s="1" t="n">
+      <c r="B126" s="2" t="n">
         <v>359060</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E126" s="1" t="n">
+      <c r="D126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="2" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
+      <c r="A127" s="2" t="n">
         <v>359060</v>
       </c>
-      <c r="B127" s="1" t="n">
+      <c r="B127" s="2" t="n">
         <v>364060</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F127" s="1" t="s">
+      <c r="D127" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H127" s="1" t="s">
+      <c r="H127" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
+      <c r="A128" s="2" t="n">
         <v>364060</v>
       </c>
-      <c r="B128" s="1" t="n">
+      <c r="B128" s="2" t="n">
         <v>365060</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
+      <c r="A129" s="2" t="n">
         <v>365060</v>
       </c>
-      <c r="B129" s="1" t="n">
+      <c r="B129" s="2" t="n">
         <v>367060</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" s="1" t="n">
+      <c r="D129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="2" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="n">
+      <c r="A130" s="2" t="n">
         <v>367060</v>
       </c>
-      <c r="B130" s="1" t="n">
+      <c r="B130" s="2" t="n">
         <v>374060</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="F130" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="n">
+      <c r="A131" s="2" t="n">
         <v>374060</v>
       </c>
-      <c r="B131" s="1" t="n">
+      <c r="B131" s="2" t="n">
         <v>376060</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
+      <c r="A132" s="2" t="n">
         <v>376060</v>
       </c>
-      <c r="B132" s="1" t="n">
+      <c r="B132" s="2" t="n">
         <v>377060</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
+      <c r="A133" s="2" t="n">
         <v>377060</v>
       </c>
-      <c r="B133" s="1" t="n">
+      <c r="B133" s="2" t="n">
         <v>378060</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="F133" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
+      <c r="A134" s="2" t="n">
         <v>378060</v>
       </c>
-      <c r="B134" s="1" t="n">
+      <c r="B134" s="2" t="n">
         <v>383060</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="F134" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H134" s="1" t="s">
+      <c r="H134" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
+      <c r="A135" s="2" t="n">
         <v>383060</v>
       </c>
-      <c r="B135" s="1" t="n">
+      <c r="B135" s="2" t="n">
         <v>389060</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="n">
+      <c r="A136" s="2" t="n">
         <v>389060</v>
       </c>
-      <c r="B136" s="1" t="n">
+      <c r="B136" s="2" t="n">
         <v>393060</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E136" s="1" t="n">
+      <c r="D136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="2" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="n">
+      <c r="A137" s="2" t="n">
         <v>393060</v>
       </c>
-      <c r="B137" s="1" t="n">
+      <c r="B137" s="2" t="n">
         <v>398060</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="F137" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="n">
+      <c r="A138" s="2" t="n">
         <v>398060</v>
       </c>
-      <c r="B138" s="1" t="n">
+      <c r="B138" s="2" t="n">
         <v>404060</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F138" s="1" t="s">
+      <c r="D138" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="n">
+      <c r="A139" s="2" t="n">
         <v>404060</v>
       </c>
-      <c r="B139" s="1" t="n">
+      <c r="B139" s="2" t="n">
         <v>407060</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="n">
+      <c r="A140" s="2" t="n">
         <v>407060</v>
       </c>
-      <c r="B140" s="1" t="n">
+      <c r="B140" s="2" t="n">
         <v>409060</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F140" s="1" t="s">
+      <c r="D140" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H140" s="1" t="s">
+      <c r="H140" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
+      <c r="A141" s="2" t="n">
         <v>409060</v>
       </c>
-      <c r="B141" s="1" t="n">
+      <c r="B141" s="2" t="n">
         <v>413060</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F141" s="1" t="s">
+      <c r="D141" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F141" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="H141" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="n">
+      <c r="A142" s="2" t="n">
         <v>413060</v>
       </c>
-      <c r="B142" s="1" t="n">
+      <c r="B142" s="2" t="n">
         <v>414060</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="n">
+      <c r="A143" s="2" t="n">
         <v>414060</v>
       </c>
-      <c r="B143" s="1" t="n">
+      <c r="B143" s="2" t="n">
         <v>418060</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E143" s="1" t="n">
+      <c r="C143" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="n">
+      <c r="A144" s="2" t="n">
         <v>418060</v>
       </c>
-      <c r="B144" s="1" t="n">
+      <c r="B144" s="2" t="n">
         <v>420060</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D144" s="1" t="s">
+      <c r="C144" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="n">
+      <c r="A145" s="2" t="n">
         <v>420060</v>
       </c>
-      <c r="B145" s="1" t="n">
+      <c r="B145" s="2" t="n">
         <v>421060</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H145" s="1"/>
+      <c r="C145" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H145" s="2"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="n">
+      <c r="A146" s="2" t="n">
         <v>421060</v>
       </c>
-      <c r="B146" s="1" t="n">
+      <c r="B146" s="2" t="n">
         <v>422060</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E146" s="1" t="n">
+      <c r="C146" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" s="2" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="n">
+      <c r="A147" s="2" t="n">
         <v>422060</v>
       </c>
-      <c r="B147" s="1" t="n">
+      <c r="B147" s="2" t="n">
         <v>423060</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D147" s="1" t="s">
+      <c r="C147" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="n">
+      <c r="A148" s="2" t="n">
         <v>423060</v>
       </c>
-      <c r="B148" s="1" t="n">
+      <c r="B148" s="2" t="n">
         <v>428060</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D148" s="1" t="s">
+      <c r="C148" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="n">
+      <c r="A149" s="2" t="n">
         <v>428060</v>
       </c>
-      <c r="B149" s="1" t="n">
+      <c r="B149" s="2" t="n">
         <v>429060</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1" t="s">
+      <c r="D149" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="n">
+      <c r="A150" s="2" t="n">
         <v>429060</v>
       </c>
-      <c r="B150" s="1" t="n">
+      <c r="B150" s="2" t="n">
         <v>430060</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="n">
+      <c r="A151" s="2" t="n">
         <v>430060</v>
       </c>
-      <c r="B151" s="1" t="n">
+      <c r="B151" s="2" t="n">
         <v>433060</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D151" s="1" t="s">
+      <c r="C151" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="n">
+      <c r="A152" s="2" t="n">
         <v>433060</v>
       </c>
-      <c r="B152" s="1" t="n">
+      <c r="B152" s="2" t="n">
         <v>435060</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D152" s="1" t="s">
+      <c r="C152" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="n">
+      <c r="A153" s="2" t="n">
         <v>435060</v>
       </c>
-      <c r="B153" s="1" t="n">
+      <c r="B153" s="2" t="n">
         <v>436060</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F153" s="1" t="s">
+      <c r="C153" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F153" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="n">
+      <c r="A154" s="2" t="n">
         <v>436060</v>
       </c>
-      <c r="B154" s="1" t="n">
+      <c r="B154" s="2" t="n">
         <v>438060</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F154" s="1" t="s">
+      <c r="C154" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H154" s="1" t="s">
+      <c r="H154" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="n">
+      <c r="A155" s="2" t="n">
         <v>438060</v>
       </c>
-      <c r="B155" s="1" t="n">
+      <c r="B155" s="2" t="n">
         <v>440060</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D155" s="1" t="s">
+      <c r="C155" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="F155" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="n">
+      <c r="A156" s="2" t="n">
         <v>440060</v>
       </c>
-      <c r="B156" s="1" t="n">
+      <c r="B156" s="2" t="n">
         <v>444060</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D156" s="1" t="s">
+      <c r="C156" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="n">
+      <c r="A157" s="2" t="n">
         <v>444060</v>
       </c>
-      <c r="B157" s="1" t="n">
+      <c r="B157" s="2" t="n">
         <v>445060</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E157" s="1" t="n">
+      <c r="C157" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="H157" s="1"/>
+      <c r="H157" s="2"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="n">
+      <c r="A158" s="2" t="n">
         <v>445060</v>
       </c>
-      <c r="B158" s="1" t="n">
+      <c r="B158" s="2" t="n">
         <v>446060</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D158" s="1" t="s">
+      <c r="C158" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="F158" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="n">
+      <c r="A159" s="2" t="n">
         <v>446060</v>
       </c>
-      <c r="B159" s="1" t="n">
+      <c r="B159" s="2" t="n">
         <v>448060</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="2" t="n">
+        <v>448060</v>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>451060</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="2" t="n">
+        <v>451060</v>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>452060</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="2" t="n">
+        <v>452060</v>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>454060</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2" t="n">
+        <v>454060</v>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>456060</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="2" t="n">
+        <v>456060</v>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>458060</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="2" t="n">
+        <v>458060</v>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>459060</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="2" t="n">
+        <v>459060</v>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>460060</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F159" s="1" t="s">
+      <c r="D166" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="2" t="n">
+        <v>460060</v>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>462060</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="2" t="n">
+        <v>462060</v>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>464060</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F168" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="n">
-        <v>448060</v>
-      </c>
-      <c r="B160" s="1" t="n">
-        <v>451060</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F160" s="1" t="s">
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="2" t="n">
+        <v>464060</v>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>465060</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="2" t="n">
+        <v>466060</v>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>467060</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="2" t="n">
+        <v>467060</v>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>470060</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="2" t="n">
+        <v>470060</v>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>482060</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="2" t="n">
+        <v>482060</v>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>483060</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="2" t="n">
+        <v>483060</v>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>487060</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="2" t="n">
+        <v>487060</v>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>491060</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="2" t="n">
+        <v>491060</v>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>492060</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="2" t="n">
+        <v>492060</v>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>493060</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="2" t="n">
+        <v>493060</v>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>494060</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="2" t="n">
+        <v>494060</v>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>495060</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="2" t="n">
+        <v>495060</v>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>500060</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="2" t="n">
+        <v>500060</v>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>502060</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="2" t="n">
+        <v>502060</v>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>504060</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="2" t="n">
+        <v>504060</v>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>506060</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="2" t="n">
+        <v>506060</v>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>508060</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="2" t="n">
+        <v>508060</v>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>511060</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F185" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="n">
-        <v>451060</v>
-      </c>
-      <c r="B161" s="1" t="n">
-        <v>452060</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D161" s="1" t="s">
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="2" t="n">
+        <v>511060</v>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>516060</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="2" t="n">
+        <v>518060</v>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>519060</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="2" t="n">
+        <v>520060</v>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>521060</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="2" t="n">
+        <v>521060</v>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>522060</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="2" t="n">
+        <v>522060</v>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>528060</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="2" t="n">
+        <v>528060</v>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>535060</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="2" t="n">
+        <v>535060</v>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>539060</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="2" t="n">
+        <v>539060</v>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>542060</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="2" t="n">
+        <v>542060</v>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>544060</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="2" t="n">
+        <v>544060</v>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>549060</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E195" s="2"/>
+    </row>
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="2" t="n">
+        <v>549060</v>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>553060</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="2" t="n">
+        <v>553060</v>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>554060</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="2" t="n">
+        <v>554060</v>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>556060</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="2" t="n">
+        <v>556060</v>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>561060</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="2" t="n">
+        <v>561060</v>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>566060</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="2" t="n">
+        <v>566060</v>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>570060</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="2" t="n">
+        <v>570060</v>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>574060</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="2" t="n">
+        <v>574060</v>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>577060</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="2" t="n">
+        <v>577060</v>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>583060</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="2" t="n">
+        <v>583060</v>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>586060</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="n">
-        <v>452060</v>
-      </c>
-      <c r="B162" s="1" t="n">
-        <v>454060</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E162" s="1" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="n">
-        <v>454060</v>
-      </c>
-      <c r="B163" s="1" t="n">
-        <v>456060</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="n">
-        <v>456060</v>
-      </c>
-      <c r="B164" s="1" t="n">
-        <v>458060</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="n">
-        <v>458060</v>
-      </c>
-      <c r="B165" s="1" t="n">
-        <v>459060</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="n">
-        <v>459060</v>
-      </c>
-      <c r="B166" s="1" t="n">
-        <v>460060</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="n">
-        <v>460060</v>
-      </c>
-      <c r="B167" s="1" t="n">
-        <v>462060</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="n">
-        <v>462060</v>
-      </c>
-      <c r="B168" s="1" t="n">
-        <v>464060</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="n">
-        <v>464060</v>
-      </c>
-      <c r="B169" s="1" t="n">
-        <v>465060</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="n">
-        <v>466060</v>
-      </c>
-      <c r="B170" s="1" t="n">
-        <v>467060</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="n">
-        <v>467060</v>
-      </c>
-      <c r="B171" s="1" t="n">
-        <v>470060</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="n">
-        <v>470060</v>
-      </c>
-      <c r="B172" s="1" t="n">
-        <v>482060</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="n">
-        <v>482060</v>
-      </c>
-      <c r="B173" s="1" t="n">
-        <v>483060</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E173" s="1" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="n">
-        <v>483060</v>
-      </c>
-      <c r="B174" s="1" t="n">
-        <v>487060</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="n">
-        <v>487060</v>
-      </c>
-      <c r="B175" s="1" t="n">
-        <v>491060</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="n">
-        <v>491060</v>
-      </c>
-      <c r="B176" s="1" t="n">
-        <v>492060</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="n">
-        <v>492060</v>
-      </c>
-      <c r="B177" s="1" t="n">
-        <v>493060</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E177" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="n">
-        <v>493060</v>
-      </c>
-      <c r="B178" s="1" t="n">
-        <v>494060</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="n">
-        <v>494060</v>
-      </c>
-      <c r="B179" s="1" t="n">
-        <v>495060</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="n">
-        <v>495060</v>
-      </c>
-      <c r="B180" s="1" t="n">
-        <v>500060</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="n">
-        <v>500060</v>
-      </c>
-      <c r="B181" s="1" t="n">
-        <v>502060</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="n">
-        <v>502060</v>
-      </c>
-      <c r="B182" s="1" t="n">
-        <v>504060</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="n">
-        <v>504060</v>
-      </c>
-      <c r="B183" s="1" t="n">
-        <v>506060</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="n">
-        <v>506060</v>
-      </c>
-      <c r="B184" s="1" t="n">
-        <v>508060</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="n">
-        <v>508060</v>
-      </c>
-      <c r="B185" s="1" t="n">
-        <v>511060</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="n">
-        <v>511060</v>
-      </c>
-      <c r="B186" s="1" t="n">
-        <v>516060</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E186" s="1" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="n">
-        <v>518060</v>
-      </c>
-      <c r="B187" s="1" t="n">
-        <v>519060</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="n">
-        <v>520060</v>
-      </c>
-      <c r="B188" s="1" t="n">
-        <v>521060</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="n">
-        <v>521060</v>
-      </c>
-      <c r="B189" s="1" t="n">
-        <v>522060</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="n">
-        <v>522060</v>
-      </c>
-      <c r="B190" s="1" t="n">
-        <v>528060</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H190" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="n">
-        <v>528060</v>
-      </c>
-      <c r="B191" s="1" t="n">
-        <v>535060</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E191" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="n">
-        <v>535060</v>
-      </c>
-      <c r="B192" s="1" t="n">
-        <v>539060</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="n">
-        <v>539060</v>
-      </c>
-      <c r="B193" s="1" t="n">
-        <v>542060</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H193" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="n">
-        <v>542060</v>
-      </c>
-      <c r="B194" s="1" t="n">
-        <v>544060</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H194" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="n">
-        <v>544060</v>
-      </c>
-      <c r="B195" s="1" t="n">
-        <v>549060</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E195" s="1"/>
-    </row>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="n">
-        <v>549060</v>
-      </c>
-      <c r="B196" s="1" t="n">
-        <v>553060</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E196" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="n">
-        <v>553060</v>
-      </c>
-      <c r="B197" s="1" t="n">
-        <v>554060</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="n">
-        <v>554060</v>
-      </c>
-      <c r="B198" s="1" t="n">
-        <v>556060</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="n">
-        <v>556060</v>
-      </c>
-      <c r="B199" s="1" t="n">
-        <v>561060</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="n">
-        <v>561060</v>
-      </c>
-      <c r="B200" s="1" t="n">
-        <v>566060</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="n">
-        <v>566060</v>
-      </c>
-      <c r="B201" s="1" t="n">
-        <v>570060</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H201" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="n">
-        <v>570060</v>
-      </c>
-      <c r="B202" s="1" t="n">
-        <v>574060</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E202" s="1" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="n">
-        <v>574060</v>
-      </c>
-      <c r="B203" s="1" t="n">
-        <v>577060</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1" t="n">
-        <v>577060</v>
-      </c>
-      <c r="B204" s="1" t="n">
-        <v>583060</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H204" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1" t="n">
-        <v>583060</v>
-      </c>
-      <c r="B205" s="1" t="n">
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="2" t="n">
         <v>586060</v>
       </c>
-      <c r="C205" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="n">
-        <v>586060</v>
-      </c>
-      <c r="B206" s="1" t="n">
+      <c r="B206" s="2" t="n">
         <v>589060</v>
       </c>
-      <c r="C206" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D206" s="1" t="s">
+      <c r="C206" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="n">
+      <c r="A207" s="2" t="n">
         <v>589060</v>
       </c>
-      <c r="B207" s="1" t="n">
+      <c r="B207" s="2" t="n">
         <v>593060</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D207" s="1" t="s">
+      <c r="C207" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="n">
+      <c r="A208" s="2" t="n">
         <v>593060</v>
       </c>
-      <c r="B208" s="1" t="n">
+      <c r="B208" s="2" t="n">
         <v>595060</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D208" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1" t="n">
+      <c r="A209" s="2" t="n">
         <v>595060</v>
       </c>
-      <c r="B209" s="1" t="n">
+      <c r="B209" s="2" t="n">
         <v>597060</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D209" s="1" t="s">
+      <c r="C209" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1" t="n">
+      <c r="A210" s="2" t="n">
         <v>597060</v>
       </c>
-      <c r="B210" s="1" t="n">
+      <c r="B210" s="2" t="n">
         <v>599060</v>
       </c>
-      <c r="C210" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D210" s="1" t="s">
+      <c r="C210" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1" t="n">
+      <c r="A211" s="2" t="n">
         <v>599060</v>
       </c>
-      <c r="B211" s="1" t="n">
+      <c r="B211" s="2" t="n">
         <v>601060</v>
       </c>
-      <c r="C211" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D211" s="1" t="s">
+      <c r="C211" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D211" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="n">
+      <c r="A212" s="2" t="n">
         <v>601060</v>
       </c>
-      <c r="B212" s="1" t="n">
+      <c r="B212" s="2" t="n">
         <v>603060</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D212" s="1" t="s">
+      <c r="C212" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1" t="n">
+      <c r="A213" s="2" t="n">
         <v>603060</v>
       </c>
-      <c r="B213" s="1" t="n">
+      <c r="B213" s="2" t="n">
         <v>605380</v>
       </c>
-      <c r="C213" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D213" s="1" t="s">
+      <c r="C213" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/data/expt_2/raw_transcripts/game69.xlsx
+++ b/data/expt_2/raw_transcripts/game69.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="203">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
+    <t xml:space="preserve">on_topic</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Alright, now you're on camera.</t>
   </si>
   <si>
@@ -286,6 +289,9 @@
     <t xml:space="preserve">A banana</t>
   </si>
   <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">I see an apple.</t>
   </si>
   <si>
@@ -601,7 +607,7 @@
     <t xml:space="preserve">Someone holding a cup and in the box it's a person.</t>
   </si>
   <si>
-    <t xml:space="preserve">Someone holding.a cup, a person</t>
+    <t xml:space="preserve">Someone holding a cup, a person</t>
   </si>
   <si>
     <t xml:space="preserve">That's a happy face.</t>
@@ -705,7 +711,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -715,6 +721,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -841,12 +851,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H213"/>
+  <dimension ref="A1:I213"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H209" activeCellId="0" sqref="H209"/>
+      <selection pane="bottomLeft" activeCell="F214" activeCellId="0" sqref="F214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -883,6 +893,9 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -892,10 +905,10 @@
         <v>2760</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -906,10 +919,10 @@
         <v>6240</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -920,10 +933,10 @@
         <v>7240</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -934,10 +947,10 @@
         <v>8240</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -948,10 +961,10 @@
         <v>11240</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -962,10 +975,10 @@
         <v>12240</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -976,10 +989,10 @@
         <v>16240</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -990,10 +1003,10 @@
         <v>21800</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,10 +1017,10 @@
         <v>27240</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1018,10 +1031,10 @@
         <v>32240</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1032,10 +1045,10 @@
         <v>34240</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,10 +1059,10 @@
         <v>38240</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1060,10 +1073,10 @@
         <v>41240</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1074,10 +1087,10 @@
         <v>43240</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1088,10 +1101,10 @@
         <v>44240</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1102,10 +1115,10 @@
         <v>48240</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1116,10 +1129,10 @@
         <v>52240</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1130,10 +1143,10 @@
         <v>54240</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,10 +1157,10 @@
         <v>56240</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1158,10 +1171,10 @@
         <v>58240</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1172,10 +1185,10 @@
         <v>60240</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1186,10 +1199,10 @@
         <v>62240</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1200,10 +1213,10 @@
         <v>64240</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,10 +1227,10 @@
         <v>66240</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1228,10 +1241,10 @@
         <v>70240</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1242,10 +1255,10 @@
         <v>74240</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1256,10 +1269,10 @@
         <v>76240</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1270,10 +1283,10 @@
         <v>79240</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1284,10 +1297,10 @@
         <v>82240</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,10 +1311,10 @@
         <v>83240</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,10 +1325,10 @@
         <v>85240</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1326,10 +1339,10 @@
         <v>86240</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1340,10 +1353,10 @@
         <v>87240</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1354,10 +1367,10 @@
         <v>88240</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1368,10 +1381,10 @@
         <v>89240</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1382,10 +1395,10 @@
         <v>90240</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1396,10 +1409,10 @@
         <v>108240</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1410,10 +1423,10 @@
         <v>111240</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1424,10 +1437,10 @@
         <v>115240</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1438,10 +1451,10 @@
         <v>118240</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1452,10 +1465,10 @@
         <v>119240</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1466,10 +1479,10 @@
         <v>120240</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1480,10 +1493,10 @@
         <v>121240</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1494,10 +1507,10 @@
         <v>122240</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1508,10 +1521,10 @@
         <v>127240</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1522,10 +1535,10 @@
         <v>131240</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1536,10 +1549,10 @@
         <v>137240</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1550,10 +1563,10 @@
         <v>146240</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1564,10 +1577,10 @@
         <v>147240</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,10 +1591,10 @@
         <v>153240</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1592,10 +1605,10 @@
         <v>159240</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1606,10 +1619,10 @@
         <v>165240</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,10 +1633,10 @@
         <v>171240</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1634,10 +1647,10 @@
         <v>175240</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1648,10 +1661,10 @@
         <v>178240</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1662,10 +1675,10 @@
         <v>180240</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,10 +1689,10 @@
         <v>182240</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1690,10 +1703,10 @@
         <v>184240</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1704,10 +1717,10 @@
         <v>187240</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1718,10 +1731,10 @@
         <v>189240</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,10 +1745,10 @@
         <v>191120</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1746,10 +1759,10 @@
         <v>192000</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1760,10 +1773,10 @@
         <v>195000</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1774,10 +1787,10 @@
         <v>196000</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1788,10 +1801,10 @@
         <v>199880</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1802,10 +1815,10 @@
         <v>201480</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1816,10 +1829,10 @@
         <v>204220</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1830,10 +1843,10 @@
         <v>207480</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1844,10 +1857,10 @@
         <v>207480</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1858,10 +1871,10 @@
         <v>212800</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1872,10 +1885,10 @@
         <v>215300</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1886,10 +1899,10 @@
         <v>218560</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1900,10 +1913,10 @@
         <v>219560</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1914,10 +1927,10 @@
         <v>220560</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1928,10 +1941,10 @@
         <v>223800</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,10 +1955,10 @@
         <v>224800</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1956,10 +1969,10 @@
         <v>225800</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1970,10 +1983,10 @@
         <v>226800</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1984,10 +1997,10 @@
         <v>227800</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1998,10 +2011,10 @@
         <v>231800</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2012,10 +2025,10 @@
         <v>234800</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>0</v>
@@ -2029,13 +2042,13 @@
         <v>235800</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2046,10 +2059,10 @@
         <v>240060</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2060,10 +2073,10 @@
         <v>243060</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2074,10 +2087,10 @@
         <v>247060</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2088,16 +2101,19 @@
         <v>249060</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2108,12 +2124,15 @@
         <v>251060</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F88" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I88" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2125,10 +2144,10 @@
         <v>253060</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2139,10 +2158,10 @@
         <v>257060</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2153,10 +2172,10 @@
         <v>258060</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2167,10 +2186,10 @@
         <v>259060</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2181,10 +2200,10 @@
         <v>261060</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" s="2" t="n">
         <v>1</v>
@@ -2198,13 +2217,13 @@
         <v>262060</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2215,10 +2234,10 @@
         <v>263060</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2229,10 +2248,10 @@
         <v>266060</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2243,16 +2262,19 @@
         <v>269060</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2263,10 +2285,10 @@
         <v>271060</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2277,10 +2299,10 @@
         <v>273060</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2291,13 +2313,13 @@
         <v>276060</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2308,10 +2330,10 @@
         <v>278060</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2322,10 +2344,10 @@
         <v>279060</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2336,10 +2358,10 @@
         <v>282060</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" s="2" t="n">
         <v>2</v>
@@ -2353,16 +2375,19 @@
         <v>286060</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2373,10 +2398,10 @@
         <v>288060</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2387,10 +2412,10 @@
         <v>289060</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2401,10 +2426,10 @@
         <v>292060</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" s="2" t="n">
         <v>3</v>
@@ -2418,12 +2443,15 @@
         <v>298060</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F108" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I108" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2435,10 +2463,10 @@
         <v>298060</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2449,16 +2477,19 @@
         <v>300060</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2469,10 +2500,10 @@
         <v>302060</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2483,10 +2514,10 @@
         <v>305060</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" s="2" t="n">
         <v>4</v>
@@ -2500,13 +2531,16 @@
         <v>311060</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2517,10 +2551,10 @@
         <v>314060</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2531,16 +2565,19 @@
         <v>317060</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2551,10 +2588,10 @@
         <v>320060</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" s="2" t="n">
         <v>5</v>
@@ -2568,13 +2605,16 @@
         <v>333060</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2585,10 +2625,10 @@
         <v>336060</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2599,10 +2639,10 @@
         <v>338060</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2613,16 +2653,19 @@
         <v>340060</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2633,12 +2676,15 @@
         <v>342060</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F121" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I121" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2650,13 +2696,16 @@
         <v>344060</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2667,13 +2716,16 @@
         <v>346060</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2684,10 +2736,10 @@
         <v>348060</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" s="2" t="n">
         <v>6</v>
@@ -2701,16 +2753,19 @@
         <v>358060</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2721,10 +2776,10 @@
         <v>359060</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" s="2" t="n">
         <v>7</v>
@@ -2738,16 +2793,19 @@
         <v>364060</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2758,10 +2816,10 @@
         <v>365060</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2772,10 +2830,10 @@
         <v>367060</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" s="2" t="n">
         <v>8</v>
@@ -2789,13 +2847,16 @@
         <v>374060</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2806,10 +2867,10 @@
         <v>376060</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2820,10 +2881,10 @@
         <v>377060</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2834,13 +2895,16 @@
         <v>378060</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2851,16 +2915,19 @@
         <v>383060</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2871,10 +2938,10 @@
         <v>389060</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2885,10 +2952,10 @@
         <v>393060</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" s="2" t="n">
         <v>9</v>
@@ -2902,12 +2969,15 @@
         <v>398060</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F137" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I137" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2919,13 +2989,16 @@
         <v>404060</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2936,10 +3009,10 @@
         <v>407060</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,16 +3023,19 @@
         <v>409060</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2970,16 +3046,19 @@
         <v>413060</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2990,10 +3069,10 @@
         <v>414060</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3004,10 +3083,10 @@
         <v>418060</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" s="2" t="n">
         <v>10</v>
@@ -3021,10 +3100,10 @@
         <v>420060</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3035,10 +3114,10 @@
         <v>421060</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H145" s="2"/>
     </row>
@@ -3050,10 +3129,10 @@
         <v>422060</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" s="2" t="n">
         <v>11</v>
@@ -3067,10 +3146,10 @@
         <v>423060</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3081,10 +3160,10 @@
         <v>428060</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3095,14 +3174,14 @@
         <v>429060</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3113,10 +3192,10 @@
         <v>430060</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3127,10 +3206,10 @@
         <v>433060</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3141,10 +3220,10 @@
         <v>435060</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3155,13 +3234,16 @@
         <v>436060</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3172,16 +3254,19 @@
         <v>438060</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3192,12 +3277,15 @@
         <v>440060</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F155" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I155" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3209,10 +3297,10 @@
         <v>444060</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3223,10 +3311,10 @@
         <v>445060</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" s="2" t="n">
         <v>12</v>
@@ -3241,13 +3329,13 @@
         <v>446060</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3258,13 +3346,13 @@
         <v>448060</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3275,13 +3363,13 @@
         <v>451060</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3292,10 +3380,10 @@
         <v>452060</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3306,10 +3394,10 @@
         <v>454060</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" s="2" t="n">
         <v>13</v>
@@ -3323,10 +3411,10 @@
         <v>456060</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3337,10 +3425,10 @@
         <v>458060</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3351,13 +3439,13 @@
         <v>459060</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3368,10 +3456,10 @@
         <v>460060</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3382,10 +3470,10 @@
         <v>462060</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3396,12 +3484,15 @@
         <v>464060</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F168" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I168" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3413,10 +3504,10 @@
         <v>465060</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3427,13 +3518,16 @@
         <v>467060</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3444,10 +3538,10 @@
         <v>470060</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3458,16 +3552,19 @@
         <v>482060</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3478,10 +3575,10 @@
         <v>483060</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" s="2" t="n">
         <v>14</v>
@@ -3495,10 +3592,10 @@
         <v>487060</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3509,16 +3606,19 @@
         <v>491060</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3529,10 +3629,10 @@
         <v>492060</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3543,16 +3643,16 @@
         <v>493060</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E177" s="2" t="n">
         <v>15</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3563,13 +3663,13 @@
         <v>494060</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3580,10 +3680,10 @@
         <v>495060</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3594,13 +3694,16 @@
         <v>500060</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3611,10 +3714,10 @@
         <v>502060</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3625,10 +3728,10 @@
         <v>504060</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3639,10 +3742,10 @@
         <v>506060</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3653,16 +3756,19 @@
         <v>508060</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3673,12 +3779,15 @@
         <v>511060</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F185" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I185" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3690,10 +3799,10 @@
         <v>516060</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" s="2" t="n">
         <v>16</v>
@@ -3707,10 +3816,10 @@
         <v>519060</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3721,10 +3830,10 @@
         <v>521060</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3735,10 +3844,10 @@
         <v>522060</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3749,16 +3858,19 @@
         <v>528060</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3769,16 +3881,16 @@
         <v>535060</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E191" s="2" t="n">
         <v>17</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3789,10 +3901,10 @@
         <v>539060</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3803,16 +3915,19 @@
         <v>542060</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3823,16 +3938,19 @@
         <v>544060</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3843,10 +3961,10 @@
         <v>549060</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" s="2"/>
     </row>
@@ -3858,15 +3976,18 @@
         <v>553060</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E196" s="2" t="n">
         <v>18</v>
       </c>
       <c r="F196" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I196" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3878,10 +3999,10 @@
         <v>554060</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3892,12 +4013,15 @@
         <v>556060</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F198" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I198" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3909,13 +4033,16 @@
         <v>561060</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3926,10 +4053,10 @@
         <v>566060</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3940,16 +4067,19 @@
         <v>570060</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3960,10 +4090,10 @@
         <v>574060</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" s="2" t="n">
         <v>19</v>
@@ -3977,10 +4107,10 @@
         <v>577060</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3991,16 +4121,19 @@
         <v>583060</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
+      </c>
+      <c r="I204" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4011,10 +4144,10 @@
         <v>586060</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4025,10 +4158,13 @@
         <v>589060</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4039,10 +4175,10 @@
         <v>593060</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4053,10 +4189,13 @@
         <v>595060</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4067,10 +4206,13 @@
         <v>597060</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4081,10 +4223,10 @@
         <v>599060</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4095,10 +4237,10 @@
         <v>601060</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4109,10 +4251,13 @@
         <v>603060</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4123,10 +4268,13 @@
         <v>605380</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/data/expt_2/raw_transcripts/game69.xlsx
+++ b/data/expt_2/raw_transcripts/game69.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="203">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -724,7 +724,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -854,9 +854,9 @@
   <dimension ref="A1:I213"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F214" activeCellId="0" sqref="F214"/>
+      <selection pane="bottomLeft" activeCell="F106" activeCellId="0" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2417,6 +2417,9 @@
       <c r="D106" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="F106" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="n">
